--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B74E388-BEAB-49B1-B632-8533E7BC3D60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CRWE" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -304,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -348,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,66 +654,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2D38F2-D7E1-4F98-B844-DCDF2373B096}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43281</v>
+      </c>
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -776,8 +764,26 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,8 +811,26 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +858,26 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,8 +889,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,8 +924,26 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,19 +971,37 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -925,46 +1009,82 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,37 +1093,61 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1011,28 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1206,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1073,8 +1241,26 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,26 +1270,44 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1131,13 +1335,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1146,22 +1368,40 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1189,8 +1429,26 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1218,13 +1476,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1233,27 +1509,45 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1262,22 +1556,40 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1305,8 +1617,26 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1334,8 +1664,26 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1363,8 +1711,26 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1392,8 +1758,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1401,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1421,13 +1805,31 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1436,22 +1838,40 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1479,13 +1899,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1494,56 +1932,92 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43281</v>
+      </c>
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1555,8 +2029,14 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1568,8 +2048,14 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1595,10 +2081,28 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1626,8 +2130,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1655,8 +2177,26 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1684,8 +2224,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1713,8 +2271,26 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,10 +2316,28 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1771,37 +2365,73 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1829,8 +2459,26 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1858,8 +2506,26 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1887,8 +2553,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1916,8 +2600,26 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1945,37 +2647,73 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1987,8 +2725,14 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2000,8 +2744,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2009,28 +2759,46 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2058,8 +2826,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2070,25 +2856,43 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2099,25 +2903,43 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
+        <v>400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>300</v>
+      </c>
+      <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2145,8 +2967,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2174,8 +3014,26 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2203,8 +3061,26 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2232,8 +3108,26 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2261,37 +3155,73 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
       </c>
       <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>300</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2303,8 +3233,14 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2332,8 +3268,26 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2361,8 +3315,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2390,8 +3362,26 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2419,37 +3409,73 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-11300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="K72" s="3">
         <v>-11300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>-11200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>-11200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>-11100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>-11100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="P72" s="3">
         <v>-10800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2477,8 +3503,26 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2506,8 +3550,26 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2535,28 +3597,46 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
@@ -2564,8 +3644,26 @@
       <c r="K76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2593,47 +3691,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43281</v>
+      </c>
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -2642,22 +3776,40 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2669,8 +3821,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2680,14 +3838,14 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -2698,8 +3856,26 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2727,8 +3903,26 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2756,8 +3950,26 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2785,8 +3997,26 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2814,8 +4044,26 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2843,8 +4091,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2872,8 +4138,26 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2885,8 +4169,14 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2914,8 +4204,26 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2943,8 +4251,26 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2972,8 +4298,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3001,8 +4345,26 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3014,8 +4376,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3043,8 +4411,26 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3072,8 +4458,26 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3101,8 +4505,26 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3130,8 +4552,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3145,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -3159,8 +4599,26 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3188,8 +4646,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3215,6 +4691,24 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,89 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,17 +755,17 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -782,8 +793,17 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +849,17 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +905,17 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +933,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,40 +1039,49 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1036,8 +1095,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1053,17 +1121,17 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1071,20 +1139,29 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,16 +1176,19 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1117,16 +1197,16 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1135,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1146,8 +1226,17 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,25 +1244,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1182,19 +1271,28 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1310,11 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1230,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1259,8 +1360,17 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,34 +1472,43 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1389,19 +1517,28 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1584,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,34 +1640,43 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1530,45 +1685,54 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1577,19 +1741,28 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1808,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1864,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1920,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1976,17 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,17 +1994,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1823,34 +2032,43 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -1859,19 +2077,28 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,34 +2144,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -1953,71 +2189,89 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2289,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2311,11 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2099,10 +2359,19 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2417,17 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2473,17 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2529,17 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2585,17 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2334,10 +2639,19 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2697,17 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2395,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2412,14 +2735,14 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2430,8 +2753,17 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2809,17 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2865,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2921,17 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2977,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +3033,17 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2677,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -2695,13 +3072,13 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -2710,10 +3087,19 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +3117,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,16 +3139,19 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -2777,13 +3169,13 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -2797,16 +3189,25 @@
       <c r="Q57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2844,40 +3245,49 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2891,43 +3301,52 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -2938,8 +3357,17 @@
       <c r="Q60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3413,17 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3469,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3525,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3581,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,43 +3637,52 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -3220,8 +3693,17 @@
       <c r="Q66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3721,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3771,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3827,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3883,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3939,73 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H72" s="3">
         <v>-11700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-11700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-11600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-11500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-11400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-11300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-11300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-11200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-11200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-11100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-11100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +4051,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +4107,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,13 +4163,22 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E76" s="3">
         <v>-300</v>
@@ -3639,13 +4196,13 @@
         <v>-300</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -3662,8 +4219,17 @@
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,86 +4275,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -3797,19 +4381,28 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4420,11 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3856,26 +4452,35 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4526,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4582,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4638,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4694,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4750,17 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4806,17 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4834,11 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4940,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4996,17 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +5052,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +5080,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +5130,17 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +5186,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5242,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5298,17 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4585,17 +5322,17 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +5354,17 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5410,17 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +5464,15 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,11 +768,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,22 +1065,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1071,20 +1091,20 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1153,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1139,11 +1162,11 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1151,8 +1174,8 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,31 +1205,32 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1212,31 +1239,34 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,22 +1274,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1268,31 +1298,34 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1331,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,11 +1415,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
@@ -1393,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -1407,8 +1444,8 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
+      <c r="O21" s="3">
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
@@ -1416,17 +1453,20 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,28 +1521,31 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1514,31 +1557,34 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,28 +1698,31 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1682,51 +1734,54 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1738,31 +1793,34 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2003,11 +2073,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2041,28 +2111,31 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2074,31 +2147,34 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,28 +2229,31 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2186,92 +2265,98 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2368,10 +2455,13 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,31 +2634,34 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2594,13 +2693,16 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2648,10 +2750,13 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2727,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2744,8 +2852,8 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>100</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,13 +3165,16 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3063,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -3081,7 +3207,7 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -3096,10 +3222,13 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,19 +3272,20 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3178,7 +3309,7 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -3198,19 +3329,22 @@
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3254,19 +3388,22 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>0</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3275,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -3283,14 +3420,14 @@
       <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>100</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,7 +3459,7 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -3331,13 +3471,13 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -3349,7 +3489,7 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,28 +3801,31 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
       </c>
       <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
@@ -3676,7 +3834,7 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
@@ -3685,7 +3843,7 @@
         <v>300</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-11800</v>
       </c>
       <c r="G72" s="3">
         <v>-11800</v>
       </c>
       <c r="H72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="I72" s="3">
         <v>-11700</v>
       </c>
       <c r="J72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-11600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-11300</v>
       </c>
       <c r="N72" s="3">
         <v>-11300</v>
       </c>
       <c r="O72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="P72" s="3">
         <v>-11200</v>
       </c>
       <c r="Q72" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="R72" s="3">
         <v>-11100</v>
       </c>
       <c r="S72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="T72" s="3">
         <v>-10800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,16 +4355,19 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
@@ -4205,7 +4391,7 @@
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,89 +4473,95 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -4378,31 +4573,34 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4461,8 +4660,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4470,8 +4669,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5550,16 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5331,11 +5577,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,11 +774,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1094,20 +1113,20 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,8 +1178,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1165,11 +1187,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1177,8 +1199,8 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,25 +1241,25 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1242,31 +1268,34 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,25 +1303,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1301,31 +1330,34 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1368,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1406,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,14 +1451,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
@@ -1433,13 +1469,13 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -1447,8 +1483,8 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
@@ -1456,22 +1492,25 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1524,31 +1563,34 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1560,31 +1602,34 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,31 +1749,34 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1737,54 +1788,57 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1796,31 +1850,34 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2076,11 +2145,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2114,31 +2183,34 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2150,31 +2222,34 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,31 +2307,34 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2268,95 +2346,101 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2458,10 +2544,13 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,16 +2732,19 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>200</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -2663,8 +2761,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2696,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2705,7 +2806,7 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2753,10 +2854,13 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2838,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2855,8 +2962,8 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>100</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2873,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3177,7 +3302,7 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -3192,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
@@ -3210,7 +3335,7 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -3225,10 +3350,13 @@
         <v>0</v>
       </c>
       <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,22 +3402,23 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3312,7 +3442,7 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3341,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3391,22 +3524,25 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3415,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -3423,14 +3559,14 @@
       <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>100</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3450,19 +3586,22 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -3474,13 +3613,13 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -3492,7 +3631,7 @@
         <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3509,8 +3648,11 @@
       <c r="U60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3813,22 +3970,22 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
@@ -3837,7 +3994,7 @@
         <v>400</v>
       </c>
       <c r="M66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -3846,7 +4003,7 @@
         <v>300</v>
       </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -3863,8 +4020,11 @@
       <c r="U66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-11800</v>
       </c>
       <c r="H72" s="3">
         <v>-11800</v>
       </c>
       <c r="I72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="J72" s="3">
         <v>-11700</v>
       </c>
       <c r="K72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="L72" s="3">
         <v>-11600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-11300</v>
       </c>
       <c r="O72" s="3">
         <v>-11300</v>
       </c>
       <c r="P72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="Q72" s="3">
         <v>-11200</v>
       </c>
       <c r="R72" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="S72" s="3">
         <v>-11100</v>
       </c>
       <c r="T72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="U72" s="3">
         <v>-10800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,10 +4552,10 @@
         <v>-400</v>
       </c>
       <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-500</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-300</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
@@ -4394,7 +4579,7 @@
         <v>-300</v>
       </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -4417,8 +4602,11 @@
       <c r="U76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,95 +4664,101 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -4576,31 +4770,34 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4663,8 +4861,8 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4672,8 +4870,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,22 +5461,25 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5258,8 +5487,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,17 +5795,20 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5580,11 +5825,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,11 +781,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,16 +1119,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1116,20 +1136,20 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,8 +1204,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1190,11 +1213,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1202,8 +1225,8 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,25 +1271,25 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1271,31 +1298,34 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1306,25 +1336,25 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1333,31 +1363,34 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1404,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,17 +1488,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
@@ -1472,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -1486,8 +1523,8 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
@@ -1495,25 +1532,28 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1566,34 +1606,37 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1605,31 +1648,34 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,34 +1801,37 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1791,57 +1843,60 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1853,31 +1908,34 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2148,11 +2218,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2186,34 +2256,37 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -2225,31 +2298,34 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,34 +2386,37 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2349,98 +2428,104 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2547,10 +2634,13 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,19 +2831,22 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2764,8 +2863,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2797,19 +2896,22 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2857,10 +2959,13 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2948,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2965,8 +3073,8 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>100</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3305,7 +3431,7 @@
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -3320,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
@@ -3338,7 +3464,7 @@
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -3353,10 +3479,13 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,25 +3533,26 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3445,7 +3576,7 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3477,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3538,14 +3675,14 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -3554,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3562,14 +3699,14 @@
       <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
+      <c r="N59" s="3">
+        <v>100</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3589,22 +3726,25 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>500</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -3616,13 +3756,13 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -3634,7 +3774,7 @@
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,34 +4116,37 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E66" s="3">
         <v>600</v>
       </c>
       <c r="F66" s="3">
+        <v>600</v>
+      </c>
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
@@ -3997,7 +4155,7 @@
         <v>400</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
@@ -4006,7 +4164,7 @@
         <v>300</v>
       </c>
       <c r="Q66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-11800</v>
       </c>
       <c r="I72" s="3">
         <v>-11800</v>
       </c>
       <c r="J72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="K72" s="3">
         <v>-11700</v>
       </c>
       <c r="L72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-11600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-11300</v>
       </c>
       <c r="P72" s="3">
         <v>-11300</v>
       </c>
       <c r="Q72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="R72" s="3">
         <v>-11200</v>
       </c>
       <c r="S72" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="T72" s="3">
         <v>-11100</v>
       </c>
       <c r="U72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="V72" s="3">
         <v>-10800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,22 +4726,25 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
       </c>
       <c r="F76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
@@ -4582,7 +4768,7 @@
         <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,101 +4856,107 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -4773,31 +4968,34 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4864,8 +5063,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -4873,8 +5072,8 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,16 +5691,19 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -5481,17 +5711,17 @@
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,11 +6053,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5828,11 +6074,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -784,11 +788,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1122,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1139,20 +1159,20 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1230,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1216,11 +1239,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1228,8 +1251,8 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1274,25 +1301,25 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1301,31 +1328,34 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1339,25 +1369,25 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1366,31 +1396,34 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1441,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,20 +1525,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
@@ -1512,13 +1549,13 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -1526,8 +1563,8 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
+      <c r="R21" s="3">
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
@@ -1535,28 +1572,31 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1609,37 +1649,40 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1651,31 +1694,34 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,37 +1853,40 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1846,60 +1898,63 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1911,31 +1966,34 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2221,11 +2291,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2259,37 +2329,40 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2301,31 +2374,34 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,37 +2465,40 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2431,101 +2510,107 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2637,10 +2724,13 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,22 +2930,25 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2866,8 +2965,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2899,22 +2998,25 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2962,10 +3064,13 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3059,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -3076,8 +3184,8 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>100</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3434,7 +3560,7 @@
         <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3449,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -3467,7 +3593,7 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
@@ -3482,10 +3608,13 @@
         <v>0</v>
       </c>
       <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,28 +3664,29 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -3579,7 +3710,7 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3614,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3678,14 +3815,14 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -3694,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -3702,14 +3839,14 @@
       <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>100</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3729,25 +3866,28 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -3759,13 +3899,13 @@
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
@@ -3777,7 +3917,7 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,37 +4274,40 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>600</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
       </c>
       <c r="G66" s="3">
+        <v>600</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
+        <v>300</v>
+      </c>
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
@@ -4158,7 +4316,7 @@
         <v>400</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
@@ -4167,7 +4325,7 @@
         <v>300</v>
       </c>
       <c r="R66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-11800</v>
       </c>
       <c r="J72" s="3">
         <v>-11800</v>
       </c>
       <c r="K72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="L72" s="3">
         <v>-11700</v>
       </c>
       <c r="M72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="N72" s="3">
         <v>-11600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-11300</v>
       </c>
       <c r="Q72" s="3">
         <v>-11300</v>
       </c>
       <c r="R72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="S72" s="3">
         <v>-11200</v>
       </c>
       <c r="T72" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="U72" s="3">
         <v>-11100</v>
       </c>
       <c r="V72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="W72" s="3">
         <v>-10800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,25 +4912,28 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-400</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
       </c>
       <c r="G76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H76" s="3">
         <v>-500</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-300</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
@@ -4771,7 +4957,7 @@
         <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,107 +5048,113 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -4971,31 +5166,34 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5066,8 +5265,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -5075,8 +5274,8 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,19 +5921,22 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -5714,17 +5944,17 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6056,11 +6302,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6077,11 +6323,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -791,11 +795,11 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1145,16 +1165,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1162,20 +1182,20 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,8 +1256,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1242,11 +1265,11 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
@@ -1254,8 +1277,8 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1304,25 +1331,25 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1331,31 +1358,34 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1372,25 +1402,25 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1399,31 +1429,34 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1478,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,23 +1562,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
@@ -1552,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -1566,8 +1603,8 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
+      <c r="S21" s="3">
+        <v>0</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
@@ -1575,17 +1612,20 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,11 +1635,11 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1652,8 +1692,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,31 +1704,31 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1697,31 +1740,34 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1865,31 +1917,31 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1901,31 +1953,34 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1933,31 +1988,31 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1969,31 +2024,34 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2294,11 +2364,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2332,8 +2402,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,31 +2414,31 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2377,31 +2450,34 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2477,31 +2556,31 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2513,104 +2592,110 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2747,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2727,10 +2814,13 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,25 +3029,28 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2968,8 +3067,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3001,25 +3100,28 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -3067,10 +3169,13 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3170,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -3187,8 +3295,8 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>100</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,13 +3668,16 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
@@ -3563,7 +3689,7 @@
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -3578,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
@@ -3596,7 +3722,7 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
@@ -3611,10 +3737,13 @@
         <v>0</v>
       </c>
       <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,31 +3795,32 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3713,7 +3844,7 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3751,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3818,14 +3955,14 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3834,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -3842,14 +3979,14 @@
       <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>100</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3869,28 +4006,31 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
@@ -3902,13 +4042,13 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -3920,7 +4060,7 @@
         <v>300</v>
       </c>
       <c r="S60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T60" s="3">
         <v>200</v>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,40 +4432,43 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
       </c>
       <c r="H66" s="3">
+        <v>600</v>
+      </c>
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>300</v>
       </c>
       <c r="K66" s="3">
+        <v>300</v>
+      </c>
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
@@ -4319,7 +4477,7 @@
         <v>400</v>
       </c>
       <c r="P66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
@@ -4328,7 +4486,7 @@
         <v>300</v>
       </c>
       <c r="S66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T66" s="3">
         <v>200</v>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-11800</v>
       </c>
       <c r="K72" s="3">
         <v>-11800</v>
       </c>
       <c r="L72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="M72" s="3">
         <v>-11700</v>
       </c>
       <c r="N72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-11600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-11300</v>
       </c>
       <c r="R72" s="3">
         <v>-11300</v>
       </c>
       <c r="S72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="T72" s="3">
         <v>-11200</v>
       </c>
       <c r="U72" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="V72" s="3">
         <v>-11100</v>
       </c>
       <c r="W72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="X72" s="3">
         <v>-10800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,28 +5098,31 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-400</v>
       </c>
       <c r="G76" s="3">
         <v>-400</v>
       </c>
       <c r="H76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I76" s="3">
         <v>-500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -4960,7 +5146,7 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5133,31 +5328,31 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -5169,31 +5364,34 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5268,8 +5467,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
@@ -5277,8 +5476,8 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5935,11 +6165,11 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -5947,17 +6177,17 @@
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6305,11 +6551,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6326,11 +6572,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,115 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -798,14 +805,14 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -836,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,13 +1180,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1168,40 +1207,40 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1218,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,38 +1304,44 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1364,10 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1334,40 +1387,40 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
@@ -1376,16 +1429,22 @@
         <v>100</v>
       </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1405,40 +1464,40 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
@@ -1447,16 +1506,22 @@
         <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1515,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1553,8 +1620,14 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1565,7 +1638,7 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
@@ -1574,17 +1647,17 @@
         <v>-200</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
@@ -1592,40 +1665,46 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1638,14 +1717,14 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1695,19 +1774,25 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-100</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1716,17 +1801,17 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1734,7 +1819,7 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1743,13 +1828,13 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
@@ -1758,16 +1843,22 @@
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,19 +2005,25 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1929,17 +2032,17 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1947,7 +2050,7 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1956,13 +2059,13 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
@@ -1971,27 +2074,33 @@
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -2000,17 +2109,17 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -2018,7 +2127,7 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -2027,13 +2136,13 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
@@ -2042,16 +2151,22 @@
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,7 +2482,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2367,14 +2506,14 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2405,19 +2544,25 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -2426,17 +2571,17 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2444,7 +2589,7 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2453,13 +2598,13 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
@@ -2468,16 +2613,22 @@
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,19 +2698,25 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -2568,17 +2725,17 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2586,7 +2743,7 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2595,13 +2752,13 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
@@ -2610,92 +2767,104 @@
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2919,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2817,33 +2990,39 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2890,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,31 +3223,37 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -3070,11 +3267,11 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3103,16 +3300,22 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -3121,13 +3324,13 @@
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -3172,10 +3375,16 @@
         <v>0</v>
       </c>
       <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3281,10 +3496,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3298,11 +3513,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
@@ -3316,8 +3531,14 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,19 +3916,25 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>600</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -3692,10 +3943,10 @@
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -3707,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
@@ -3725,10 +3976,10 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
@@ -3740,10 +3991,16 @@
         <v>0</v>
       </c>
       <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,37 +4055,39 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3847,10 +4108,10 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -3867,8 +4128,14 @@
       <c r="Y57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3888,17 +4155,17 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3938,16 +4205,22 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3958,41 +4231,41 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4009,34 +4282,40 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -4045,16 +4324,16 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
@@ -4063,10 +4342,10 @@
         <v>300</v>
       </c>
       <c r="T60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
@@ -4080,8 +4359,14 @@
       <c r="Y60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,37 +4744,43 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
@@ -4474,25 +4789,25 @@
         <v>400</v>
       </c>
       <c r="O66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
       </c>
       <c r="Q66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
       </c>
       <c r="T66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
@@ -4506,8 +4821,14 @@
       <c r="Y66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-11400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-11300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-11200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-11200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-11100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-11100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-10800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,34 +5466,40 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="E76" s="3">
         <v>-700</v>
       </c>
       <c r="F76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -5149,10 +5520,10 @@
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T76" s="3">
         <v>-200</v>
@@ -5172,8 +5543,14 @@
       <c r="Y76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,95 +5620,107 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -5340,17 +5729,17 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -5358,7 +5747,7 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -5367,13 +5756,13 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
@@ -5382,16 +5771,22 @@
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5470,26 +5867,32 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5914,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,46 +6607,52 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6225,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6545,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -6554,14 +7045,14 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6575,14 +7066,14 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6607,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -811,11 +815,11 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,16 +1203,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1213,16 +1233,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1230,20 +1250,20 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1310,8 +1333,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1319,11 +1342,11 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
@@ -1331,8 +1354,8 @@
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1393,25 +1420,25 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1420,31 +1447,34 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
       <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1470,25 +1500,25 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
@@ -1497,31 +1527,34 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,11 +1592,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1588,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
@@ -1644,23 +1681,23 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
@@ -1671,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
@@ -1685,8 +1722,8 @@
       <c r="U21" s="3">
         <v>0</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
+      <c r="V21" s="3">
+        <v>0</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
@@ -1694,17 +1731,20 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
       <c r="AA21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1723,11 +1763,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1780,16 +1820,19 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
@@ -1798,31 +1841,31 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1834,31 +1877,34 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,16 +2060,19 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
@@ -2029,31 +2081,31 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -2065,39 +2117,42 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
@@ -2106,31 +2161,31 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -2142,31 +2197,34 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,10 +2552,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2512,11 +2582,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2550,16 +2620,19 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
@@ -2568,31 +2641,31 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2604,31 +2677,34 @@
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,16 +2780,19 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
@@ -2722,31 +2801,31 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2758,113 +2837,119 @@
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2996,36 +3083,39 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>100</v>
-      </c>
-      <c r="I42" s="3">
-        <v>200</v>
       </c>
       <c r="J42" s="3">
         <v>200</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3255,8 +3354,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -3273,8 +3372,8 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3306,34 +3405,37 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -3381,10 +3483,13 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3502,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -3519,8 +3627,8 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3">
+        <v>100</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,22 +4045,25 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
@@ -3949,7 +4075,7 @@
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -3964,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
@@ -3982,7 +4108,7 @@
         <v>100</v>
       </c>
       <c r="V54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
@@ -3997,10 +4123,13 @@
         <v>0</v>
       </c>
       <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,40 +4187,41 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -4114,7 +4245,7 @@
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,10 +4277,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4161,13 +4295,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4211,16 +4345,19 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -4237,14 +4374,14 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -4253,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -4261,14 +4398,14 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>100</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4288,37 +4425,40 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E60" s="3">
         <v>1300</v>
       </c>
       <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -4330,13 +4470,13 @@
         <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
       <c r="R60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
@@ -4348,7 +4488,7 @@
         <v>300</v>
       </c>
       <c r="V60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,49 +4905,52 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E66" s="3">
         <v>1300</v>
       </c>
       <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
       </c>
       <c r="K66" s="3">
+        <v>600</v>
+      </c>
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
       </c>
       <c r="N66" s="3">
+        <v>300</v>
+      </c>
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>400</v>
@@ -4801,7 +4959,7 @@
         <v>400</v>
       </c>
       <c r="S66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T66" s="3">
         <v>300</v>
@@ -4810,7 +4968,7 @@
         <v>300</v>
       </c>
       <c r="V66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-11800</v>
       </c>
       <c r="N72" s="3">
         <v>-11800</v>
       </c>
       <c r="O72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="P72" s="3">
         <v>-11700</v>
       </c>
       <c r="Q72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="R72" s="3">
         <v>-11600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-11300</v>
       </c>
       <c r="U72" s="3">
         <v>-11300</v>
       </c>
       <c r="V72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="W72" s="3">
         <v>-11200</v>
       </c>
       <c r="X72" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="Y72" s="3">
         <v>-11100</v>
       </c>
       <c r="Z72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-10800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,37 +5655,40 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-400</v>
       </c>
       <c r="K76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L76" s="3">
         <v>-500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -5526,7 +5712,7 @@
         <v>-300</v>
       </c>
       <c r="T76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,98 +5815,104 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
@@ -5726,31 +5921,31 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -5762,31 +5957,34 @@
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5873,8 +6072,8 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
@@ -5882,8 +6081,8 @@
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6622,22 +6852,22 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -6645,17 +6875,17 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,11 +7282,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -7051,11 +7297,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -7072,11 +7318,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -818,11 +822,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,19 +1223,22 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1236,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1253,20 +1273,20 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1336,8 +1359,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
@@ -1345,11 +1368,11 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>4</v>
@@ -1357,8 +1380,8 @@
       <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1419,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1423,25 +1450,25 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
@@ -1450,31 +1477,34 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
       <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1503,25 +1533,25 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
@@ -1530,31 +1560,34 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,14 +1626,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1625,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1663,8 +1697,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,11 +1709,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
@@ -1684,23 +1721,23 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
@@ -1711,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
@@ -1725,8 +1762,8 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
+      <c r="W21" s="3">
+        <v>0</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
@@ -1734,17 +1771,20 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
       <c r="AB21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1766,11 +1806,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1823,20 +1863,23 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
@@ -1844,31 +1887,31 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1880,31 +1923,34 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,20 +2112,23 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
@@ -2084,31 +2136,31 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -2120,43 +2172,46 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
@@ -2164,31 +2219,31 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -2200,31 +2255,34 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,13 +2622,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2585,11 +2655,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2623,20 +2693,23 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
@@ -2644,31 +2717,31 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
@@ -2680,31 +2753,34 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,20 +2859,23 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
@@ -2804,31 +2883,31 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
@@ -2840,116 +2919,122 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3094,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3086,10 +3173,13 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3097,28 +3187,28 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>100</v>
-      </c>
-      <c r="J42" s="3">
-        <v>200</v>
       </c>
       <c r="K42" s="3">
         <v>200</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3357,8 +3456,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -3375,8 +3474,8 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3408,37 +3507,40 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -3486,10 +3588,13 @@
         <v>0</v>
       </c>
       <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3613,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3630,8 +3738,8 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>100</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4171,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4057,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
@@ -4078,7 +4204,7 @@
         <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -4093,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -4111,7 +4237,7 @@
         <v>100</v>
       </c>
       <c r="W54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X54" s="3">
         <v>0</v>
@@ -4126,10 +4252,13 @@
         <v>0</v>
       </c>
       <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,43 +4318,44 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -4248,7 +4379,7 @@
         <v>300</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4277,14 +4411,14 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -4298,13 +4432,13 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4359,8 +4496,8 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -4377,14 +4514,14 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4393,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -4401,14 +4538,14 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
+      <c r="T59" s="3">
+        <v>100</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4428,40 +4565,43 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1300</v>
       </c>
       <c r="F60" s="3">
         <v>1300</v>
       </c>
       <c r="G60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -4473,13 +4613,13 @@
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
       <c r="S60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T60" s="3">
         <v>300</v>
@@ -4491,7 +4631,7 @@
         <v>300</v>
       </c>
       <c r="W60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X60" s="3">
         <v>200</v>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,52 +5063,55 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1300</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
       </c>
       <c r="G66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
       </c>
       <c r="L66" s="3">
+        <v>600</v>
+      </c>
+      <c r="M66" s="3">
         <v>500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
       </c>
       <c r="O66" s="3">
+        <v>300</v>
+      </c>
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
@@ -4962,7 +5120,7 @@
         <v>400</v>
       </c>
       <c r="T66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U66" s="3">
         <v>300</v>
@@ -4971,7 +5129,7 @@
         <v>300</v>
       </c>
       <c r="W66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X66" s="3">
         <v>200</v>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-11800</v>
       </c>
       <c r="O72" s="3">
         <v>-11800</v>
       </c>
       <c r="P72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="Q72" s="3">
         <v>-11700</v>
       </c>
       <c r="R72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="S72" s="3">
         <v>-11600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-11300</v>
       </c>
       <c r="V72" s="3">
         <v>-11300</v>
       </c>
       <c r="W72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="X72" s="3">
         <v>-11200</v>
       </c>
       <c r="Y72" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="Z72" s="3">
         <v>-11100</v>
       </c>
       <c r="AA72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-10800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,40 +5841,43 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
       </c>
       <c r="L76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M76" s="3">
         <v>-500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
@@ -5715,7 +5901,7 @@
         <v>-300</v>
       </c>
       <c r="U76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,105 +6007,111 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
@@ -5924,31 +6119,31 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
@@ -5960,31 +6155,34 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6075,8 +6274,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>4</v>
@@ -6084,8 +6283,8 @@
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6855,22 +7085,22 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -6878,17 +7108,17 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7285,11 +7531,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -7300,11 +7546,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7321,11 +7567,11 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -1871,8 +1871,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -2120,8 +2120,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -2203,8 +2203,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -2701,8 +2701,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2867,8 +2867,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -3515,8 +3515,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -4573,8 +4573,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>1300</v>
       </c>
       <c r="E60" s="3">
         <v>1200</v>
@@ -5071,8 +5071,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>1300</v>
       </c>
       <c r="E66" s="3">
         <v>1200</v>
@@ -6103,8 +6103,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>CRWE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,130 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -825,14 +832,14 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -863,8 +870,14 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,25 +1259,31 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1259,40 +1298,40 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1309,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1362,38 +1407,44 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0</v>
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,13 +1471,15 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1453,40 +1506,40 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
         <v>0</v>
@@ -1495,16 +1548,22 @@
         <v>100</v>
       </c>
       <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
         <v>300</v>
       </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1536,40 +1595,40 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
         <v>0</v>
@@ -1578,16 +1637,22 @@
         <v>-100</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,20 +1693,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1662,13 +1729,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1700,8 +1767,14 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,22 +1782,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1733,17 +1806,17 @@
         <v>-200</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
@@ -1751,40 +1824,46 @@
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1809,14 +1888,14 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1866,31 +1945,37 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-100</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1899,17 +1984,17 @@
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1917,7 +2002,7 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1926,13 +2011,13 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
         <v>0</v>
@@ -1941,16 +2026,22 @@
         <v>-100</v>
       </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,31 +2212,37 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -2148,17 +2251,17 @@
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -2166,7 +2269,7 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
@@ -2175,13 +2278,13 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
@@ -2190,39 +2293,45 @@
         <v>-100</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -2231,17 +2340,17 @@
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -2249,7 +2358,7 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -2258,13 +2367,13 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
         <v>0</v>
@@ -2273,16 +2382,22 @@
         <v>-100</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,19 +2761,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2658,14 +2797,14 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2696,31 +2835,37 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2729,17 +2874,17 @@
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2747,7 +2892,7 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2756,13 +2901,13 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
         <v>0</v>
@@ -2771,16 +2916,22 @@
         <v>-100</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,31 +3013,37 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2895,17 +3052,17 @@
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2913,7 +3070,7 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2922,13 +3079,13 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
@@ -2937,104 +3094,116 @@
         <v>-100</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3266,10 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3176,30 +3349,36 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>100</v>
-      </c>
-      <c r="I42" s="3">
-        <v>200</v>
       </c>
       <c r="J42" s="3">
         <v>100</v>
@@ -3208,13 +3387,13 @@
         <v>200</v>
       </c>
       <c r="L42" s="3">
+        <v>100</v>
+      </c>
+      <c r="M42" s="3">
         <v>200</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3261,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3459,11 +3656,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -3477,11 +3674,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3510,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3522,16 +3725,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -3540,13 +3743,13 @@
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -3591,10 +3794,16 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3724,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3741,11 +3956,11 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>100</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
@@ -3759,8 +3974,14 @@
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,8 +4419,14 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4186,19 +4437,19 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
@@ -4207,10 +4458,10 @@
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -4222,10 +4473,10 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
@@ -4240,10 +4491,10 @@
         <v>100</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z54" s="3">
         <v>0</v>
@@ -4255,10 +4506,16 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,49 +4578,51 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -4382,10 +4643,10 @@
         <v>300</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
@@ -4402,29 +4663,35 @@
       <c r="AC57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -4435,17 +4702,17 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -4485,8 +4752,14 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4499,11 +4772,11 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -4517,41 +4790,41 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4568,46 +4841,52 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F60" s="3">
         <v>1300</v>
       </c>
       <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -4616,16 +4895,16 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>300</v>
@@ -4634,10 +4913,10 @@
         <v>300</v>
       </c>
       <c r="X60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z60" s="3">
         <v>200</v>
@@ -4651,8 +4930,14 @@
       <c r="AC60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,49 +5375,55 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E66" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
       </c>
       <c r="G66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
@@ -5117,25 +5432,25 @@
         <v>400</v>
       </c>
       <c r="S66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
       </c>
       <c r="U66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W66" s="3">
         <v>300</v>
       </c>
       <c r="X66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z66" s="3">
         <v>200</v>
@@ -5149,8 +5464,14 @@
       <c r="AC66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-13000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-11700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-11700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-11500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-11400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-11300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-11300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-11100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-11100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-10800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,46 +6209,52 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-800</v>
       </c>
       <c r="I76" s="3">
         <v>-700</v>
       </c>
       <c r="J76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -5904,10 +6275,10 @@
         <v>-300</v>
       </c>
       <c r="V76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
@@ -5927,8 +6298,14 @@
       <c r="AC76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,119 +6387,131 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -6131,17 +6520,17 @@
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -6149,7 +6538,7 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -6158,13 +6547,13 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
         <v>0</v>
@@ -6173,16 +6562,22 @@
         <v>-100</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6277,26 +6674,32 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>0</v>
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6793,8 +7226,14 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7088,43 +7547,43 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -7156,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7534,14 +8025,14 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -7549,14 +8040,14 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7570,14 +8061,14 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -7602,8 +8093,14 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7766,6 +8269,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRWE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -838,11 +842,11 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,16 +1282,19 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1282,11 +1302,11 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1304,16 +1324,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1321,20 +1341,20 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1413,8 +1436,8 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
@@ -1422,11 +1445,11 @@
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>4</v>
@@ -1434,8 +1457,8 @@
       <c r="AB15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC15" s="3">
-        <v>0</v>
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1482,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1512,25 +1539,25 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
@@ -1539,31 +1566,34 @@
         <v>100</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
       <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
       <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>300</v>
       </c>
-      <c r="AD17" s="3">
-        <v>0</v>
-      </c>
       <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1601,25 +1631,25 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
@@ -1628,31 +1658,34 @@
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
       <c r="Z18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
       <c r="AE18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1699,17 +1733,17 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1735,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,20 +1819,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
@@ -1803,23 +1840,23 @@
         <v>-100</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>-100</v>
-      </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
@@ -1830,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
@@ -1844,8 +1881,8 @@
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
+      <c r="Z21" s="3">
+        <v>0</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
@@ -1853,17 +1890,20 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-300</v>
       </c>
-      <c r="AD21" s="3">
-        <v>0</v>
-      </c>
       <c r="AE21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1894,11 +1934,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1951,29 +1991,32 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
@@ -1981,31 +2024,31 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -2017,31 +2060,34 @@
         <v>-100</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-300</v>
       </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
       <c r="AE23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,29 +2267,32 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
@@ -2248,31 +2300,31 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
@@ -2284,52 +2336,55 @@
         <v>-100</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-300</v>
       </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
       <c r="AE26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
@@ -2337,31 +2392,31 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
@@ -2373,31 +2428,34 @@
         <v>-100</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-300</v>
       </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
       <c r="AE27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2767,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2803,11 +2873,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2841,29 +2911,32 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
@@ -2871,31 +2944,31 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
@@ -2907,31 +2980,34 @@
         <v>-100</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-300</v>
       </c>
-      <c r="AD33" s="3">
-        <v>0</v>
-      </c>
       <c r="AE33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,29 +3095,32 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
@@ -3049,31 +3128,31 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
@@ -3085,125 +3164,131 @@
         <v>-100</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-300</v>
       </c>
-      <c r="AD35" s="3">
-        <v>0</v>
-      </c>
       <c r="AE35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3355,18 +3442,21 @@
         <v>0</v>
       </c>
       <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -3375,28 +3465,28 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>100</v>
-      </c>
-      <c r="M42" s="3">
-        <v>200</v>
       </c>
       <c r="N42" s="3">
         <v>200</v>
       </c>
       <c r="O42" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3662,8 +3761,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -3680,8 +3779,8 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3713,8 +3812,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3731,28 +3833,28 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -3800,10 +3902,13 @@
         <v>0</v>
       </c>
       <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3945,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3962,8 +4070,8 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
+      <c r="Z48" s="3">
+        <v>100</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4443,16 +4569,16 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
@@ -4464,7 +4590,7 @@
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -4479,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
@@ -4497,7 +4623,7 @@
         <v>100</v>
       </c>
       <c r="Z54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA54" s="3">
         <v>0</v>
@@ -4512,10 +4638,13 @@
         <v>0</v>
       </c>
       <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4592,40 +4723,40 @@
         <v>1400</v>
       </c>
       <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -4649,7 +4780,7 @@
         <v>300</v>
       </c>
       <c r="Y57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4678,7 +4812,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4687,14 +4821,14 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -4708,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4778,8 +4915,8 @@
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -4796,14 +4933,14 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4812,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -4820,14 +4957,14 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
+      <c r="W59" s="3">
+        <v>100</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4859,37 +4999,37 @@
         <v>1400</v>
       </c>
       <c r="F60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1300</v>
       </c>
       <c r="I60" s="3">
         <v>1300</v>
       </c>
       <c r="J60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
@@ -4901,13 +5041,13 @@
         <v>300</v>
       </c>
       <c r="T60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
       </c>
       <c r="V60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W60" s="3">
         <v>300</v>
@@ -4919,7 +5059,7 @@
         <v>300</v>
       </c>
       <c r="Z60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA60" s="3">
         <v>200</v>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5393,49 +5551,49 @@
         <v>1400</v>
       </c>
       <c r="F66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1300</v>
       </c>
       <c r="I66" s="3">
         <v>1300</v>
       </c>
       <c r="J66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>600</v>
       </c>
       <c r="O66" s="3">
+        <v>600</v>
+      </c>
+      <c r="P66" s="3">
         <v>500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
       </c>
       <c r="R66" s="3">
+        <v>300</v>
+      </c>
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>400</v>
       </c>
       <c r="U66" s="3">
         <v>400</v>
@@ -5444,7 +5602,7 @@
         <v>400</v>
       </c>
       <c r="W66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X66" s="3">
         <v>300</v>
@@ -5453,7 +5611,7 @@
         <v>300</v>
       </c>
       <c r="Z66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA66" s="3">
         <v>200</v>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5871,85 +6045,88 @@
         <v>-14200</v>
       </c>
       <c r="F72" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-14100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-11800</v>
       </c>
       <c r="R72" s="3">
         <v>-11800</v>
       </c>
       <c r="S72" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="T72" s="3">
         <v>-11700</v>
       </c>
       <c r="U72" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="V72" s="3">
         <v>-11600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11400</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-11300</v>
       </c>
       <c r="Y72" s="3">
         <v>-11300</v>
       </c>
       <c r="Z72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="AA72" s="3">
         <v>-11200</v>
       </c>
       <c r="AB72" s="3">
-        <v>-11100</v>
+        <v>-11200</v>
       </c>
       <c r="AC72" s="3">
         <v>-11100</v>
       </c>
       <c r="AD72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-10800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-10700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6227,37 +6413,37 @@
         <v>-1400</v>
       </c>
       <c r="F76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
       </c>
       <c r="O76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P76" s="3">
         <v>-500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
@@ -6281,7 +6467,7 @@
         <v>-300</v>
       </c>
       <c r="X76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Y76" s="3">
         <v>-200</v>
@@ -6304,8 +6490,11 @@
       <c r="AE76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,123 +6582,129 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
@@ -6517,31 +6712,31 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
@@ -6553,31 +6748,34 @@
         <v>-100</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
       <c r="Z81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-300</v>
       </c>
-      <c r="AD81" s="3">
-        <v>0</v>
-      </c>
       <c r="AE81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6680,8 +6879,8 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>4</v>
@@ -6689,8 +6888,8 @@
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC83" s="3">
-        <v>0</v>
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7553,22 +7783,22 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -7576,17 +7806,17 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8031,11 +8277,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -8046,11 +8292,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -8067,11 +8313,11 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
